--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H2">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I2">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J2">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.0711453992741</v>
+        <v>3.470843666666667</v>
       </c>
       <c r="N2">
-        <v>3.0711453992741</v>
+        <v>10.412531</v>
       </c>
       <c r="O2">
-        <v>0.05247119903400454</v>
+        <v>0.05653984104486641</v>
       </c>
       <c r="P2">
-        <v>0.05247119903400454</v>
+        <v>0.0651263661336549</v>
       </c>
       <c r="Q2">
-        <v>5.798253159284021</v>
+        <v>9.275012893957113</v>
       </c>
       <c r="R2">
-        <v>5.798253159284021</v>
+        <v>83.47511604561402</v>
       </c>
       <c r="S2">
-        <v>0.009883510895686957</v>
+        <v>0.01209575702871108</v>
       </c>
       <c r="T2">
-        <v>0.009883510895686957</v>
+        <v>0.01719001224961281</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H3">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I3">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J3">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.4857968873752</v>
+        <v>32.24261766666667</v>
       </c>
       <c r="N3">
-        <v>30.4857968873752</v>
+        <v>96.72785300000001</v>
       </c>
       <c r="O3">
-        <v>0.5208565887391037</v>
+        <v>0.5252303626496961</v>
       </c>
       <c r="P3">
-        <v>0.5208565887391037</v>
+        <v>0.6049954204026234</v>
       </c>
       <c r="Q3">
-        <v>57.55649607384088</v>
+        <v>86.16080795147579</v>
       </c>
       <c r="R3">
-        <v>57.55649607384088</v>
+        <v>775.4472715632821</v>
       </c>
       <c r="S3">
-        <v>0.09810890287750282</v>
+        <v>0.1123642856666532</v>
       </c>
       <c r="T3">
-        <v>0.09810890287750282</v>
+        <v>0.1596876857268177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H4">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I4">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J4">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9240875172576321</v>
+        <v>0.9959919999999999</v>
       </c>
       <c r="N4">
-        <v>0.9240875172576321</v>
+        <v>2.987976</v>
       </c>
       <c r="O4">
-        <v>0.01578823980601016</v>
+        <v>0.01622465163233374</v>
       </c>
       <c r="P4">
-        <v>0.01578823980601016</v>
+        <v>0.01868863765923708</v>
       </c>
       <c r="Q4">
-        <v>1.744656364254339</v>
+        <v>2.661554229882666</v>
       </c>
       <c r="R4">
-        <v>1.744656364254339</v>
+        <v>23.953988068944</v>
       </c>
       <c r="S4">
-        <v>0.002973883635578718</v>
+        <v>0.003470993911434214</v>
       </c>
       <c r="T4">
-        <v>0.002973883635578718</v>
+        <v>0.004932839483651868</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H5">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I5">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J5">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>24.0490868279583</v>
+        <v>0.3973579999999999</v>
       </c>
       <c r="N5">
-        <v>24.0490868279583</v>
+        <v>1.192074</v>
       </c>
       <c r="O5">
-        <v>0.4108839724208816</v>
+        <v>0.006472938661476068</v>
       </c>
       <c r="P5">
-        <v>0.4108839724208816</v>
+        <v>0.00745596318343835</v>
       </c>
       <c r="Q5">
-        <v>45.40413283951447</v>
+        <v>1.061845743417333</v>
       </c>
       <c r="R5">
-        <v>45.40413283951447</v>
+        <v>9.556611690756</v>
       </c>
       <c r="S5">
-        <v>0.07739438574013073</v>
+        <v>0.001384777386424466</v>
       </c>
       <c r="T5">
-        <v>0.07739438574013073</v>
+        <v>0.00196799093922937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.5363846106917</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H6">
-        <v>1.5363846106917</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I6">
-        <v>0.1532827946918666</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J6">
-        <v>0.1532827946918666</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.0711453992741</v>
+        <v>24.2807625</v>
       </c>
       <c r="N6">
-        <v>3.0711453992741</v>
+        <v>48.561525</v>
       </c>
       <c r="O6">
-        <v>0.05247119903400454</v>
+        <v>0.3955322060116276</v>
       </c>
       <c r="P6">
-        <v>0.05247119903400454</v>
+        <v>0.3037336126210463</v>
       </c>
       <c r="Q6">
-        <v>4.718460528641344</v>
+        <v>64.884623708475</v>
       </c>
       <c r="R6">
-        <v>4.718460528641344</v>
+        <v>389.3077422508501</v>
       </c>
       <c r="S6">
-        <v>0.008042932028765389</v>
+        <v>0.08461752584607127</v>
       </c>
       <c r="T6">
-        <v>0.008042932028765389</v>
+        <v>0.08017005755948084</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H7">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I7">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J7">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.4857968873752</v>
+        <v>3.470843666666667</v>
       </c>
       <c r="N7">
-        <v>30.4857968873752</v>
+        <v>10.412531</v>
       </c>
       <c r="O7">
-        <v>0.5208565887391037</v>
+        <v>0.05653984104486641</v>
       </c>
       <c r="P7">
-        <v>0.5208565887391037</v>
+        <v>0.0651263661336549</v>
       </c>
       <c r="Q7">
-        <v>46.83790918243619</v>
+        <v>5.850419376096668</v>
       </c>
       <c r="R7">
-        <v>46.83790918243619</v>
+        <v>52.65377438487001</v>
       </c>
       <c r="S7">
-        <v>0.07983835355560205</v>
+        <v>0.007629666082236282</v>
       </c>
       <c r="T7">
-        <v>0.07983835355560205</v>
+        <v>0.01084298015434531</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H8">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I8">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J8">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9240875172576321</v>
+        <v>32.24261766666667</v>
       </c>
       <c r="N8">
-        <v>0.9240875172576321</v>
+        <v>96.72785300000001</v>
       </c>
       <c r="O8">
-        <v>0.01578823980601016</v>
+        <v>0.5252303626496961</v>
       </c>
       <c r="P8">
-        <v>0.01578823980601016</v>
+        <v>0.6049954204026234</v>
       </c>
       <c r="Q8">
-        <v>1.419753840446927</v>
+        <v>54.34783391275667</v>
       </c>
       <c r="R8">
-        <v>1.419753840446927</v>
+        <v>489.1305052148101</v>
       </c>
       <c r="S8">
-        <v>0.002420065520730612</v>
+        <v>0.07087625662210627</v>
       </c>
       <c r="T8">
-        <v>0.002420065520730612</v>
+        <v>0.1007265371360172</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H9">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I9">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J9">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.0490868279583</v>
+        <v>0.9959919999999999</v>
       </c>
       <c r="N9">
-        <v>24.0490868279583</v>
+        <v>2.987976</v>
       </c>
       <c r="O9">
-        <v>0.4108839724208816</v>
+        <v>0.01622465163233374</v>
       </c>
       <c r="P9">
-        <v>0.4108839724208816</v>
+        <v>0.01868863765923708</v>
       </c>
       <c r="Q9">
-        <v>36.9486469036636</v>
+        <v>1.67883415528</v>
       </c>
       <c r="R9">
-        <v>36.9486469036636</v>
+        <v>15.10950739752</v>
       </c>
       <c r="S9">
-        <v>0.06298144358676859</v>
+        <v>0.002189406124383786</v>
       </c>
       <c r="T9">
-        <v>0.06298144358676859</v>
+        <v>0.003111497528282036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.59884125304004</v>
+        <v>1.68559</v>
       </c>
       <c r="H10">
-        <v>6.59884125304004</v>
+        <v>5.05677</v>
       </c>
       <c r="I10">
-        <v>0.658356522159234</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J10">
-        <v>0.658356522159234</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.0711453992741</v>
+        <v>0.3973579999999999</v>
       </c>
       <c r="N10">
-        <v>3.0711453992741</v>
+        <v>1.192074</v>
       </c>
       <c r="O10">
-        <v>0.05247119903400454</v>
+        <v>0.006472938661476068</v>
       </c>
       <c r="P10">
-        <v>0.05247119903400454</v>
+        <v>0.00745596318343835</v>
       </c>
       <c r="Q10">
-        <v>20.26600095481406</v>
+        <v>0.6697826712199999</v>
       </c>
       <c r="R10">
-        <v>20.26600095481406</v>
+        <v>6.028044040979999</v>
       </c>
       <c r="S10">
-        <v>0.03454475610955219</v>
+        <v>0.0008734789423739273</v>
       </c>
       <c r="T10">
-        <v>0.03454475610955219</v>
+        <v>0.001241353780796526</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.59884125304004</v>
+        <v>1.68559</v>
       </c>
       <c r="H11">
-        <v>6.59884125304004</v>
+        <v>5.05677</v>
       </c>
       <c r="I11">
-        <v>0.658356522159234</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J11">
-        <v>0.658356522159234</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.4857968873752</v>
+        <v>24.2807625</v>
       </c>
       <c r="N11">
-        <v>30.4857968873752</v>
+        <v>48.561525</v>
       </c>
       <c r="O11">
-        <v>0.5208565887391037</v>
+        <v>0.3955322060116276</v>
       </c>
       <c r="P11">
-        <v>0.5208565887391037</v>
+        <v>0.3037336126210463</v>
       </c>
       <c r="Q11">
-        <v>201.1709341322111</v>
+        <v>40.92741046237501</v>
       </c>
       <c r="R11">
-        <v>201.1709341322111</v>
+        <v>245.56446277425</v>
       </c>
       <c r="S11">
-        <v>0.3429093323059987</v>
+        <v>0.05337437461566778</v>
       </c>
       <c r="T11">
-        <v>0.3429093323059987</v>
+        <v>0.05056903569744413</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>6.59884125304004</v>
+        <v>0.5508483333333333</v>
       </c>
       <c r="H12">
-        <v>6.59884125304004</v>
+        <v>1.652545</v>
       </c>
       <c r="I12">
-        <v>0.658356522159234</v>
+        <v>0.04409923356951998</v>
       </c>
       <c r="J12">
-        <v>0.658356522159234</v>
+        <v>0.05440914609796296</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9240875172576321</v>
+        <v>3.470843666666667</v>
       </c>
       <c r="N12">
-        <v>0.9240875172576321</v>
+        <v>10.412531</v>
       </c>
       <c r="O12">
-        <v>0.01578823980601016</v>
+        <v>0.05653984104486641</v>
       </c>
       <c r="P12">
-        <v>0.01578823980601016</v>
+        <v>0.0651263661336549</v>
       </c>
       <c r="Q12">
-        <v>6.097906830299012</v>
+        <v>1.911908449043889</v>
       </c>
       <c r="R12">
-        <v>6.097906830299012</v>
+        <v>17.207176041395</v>
       </c>
       <c r="S12">
-        <v>0.01039429064970083</v>
+        <v>0.002493363656221096</v>
       </c>
       <c r="T12">
-        <v>0.01039429064970083</v>
+        <v>0.003543469969795457</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.5508483333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.652545</v>
+      </c>
+      <c r="I13">
+        <v>0.04409923356951998</v>
+      </c>
+      <c r="J13">
+        <v>0.05440914609796296</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>32.24261766666667</v>
+      </c>
+      <c r="N13">
+        <v>96.72785300000001</v>
+      </c>
+      <c r="O13">
+        <v>0.5252303626496961</v>
+      </c>
+      <c r="P13">
+        <v>0.6049954204026234</v>
+      </c>
+      <c r="Q13">
+        <v>17.76079220398722</v>
+      </c>
+      <c r="R13">
+        <v>159.847129835885</v>
+      </c>
+      <c r="S13">
+        <v>0.02316225644029263</v>
+      </c>
+      <c r="T13">
+        <v>0.03291728421728486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.5508483333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.652545</v>
+      </c>
+      <c r="I14">
+        <v>0.04409923356951998</v>
+      </c>
+      <c r="J14">
+        <v>0.05440914609796296</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9959919999999999</v>
+      </c>
+      <c r="N14">
+        <v>2.987976</v>
+      </c>
+      <c r="O14">
+        <v>0.01622465163233374</v>
+      </c>
+      <c r="P14">
+        <v>0.01868863765923708</v>
+      </c>
+      <c r="Q14">
+        <v>0.5486405332133332</v>
+      </c>
+      <c r="R14">
+        <v>4.937764798919999</v>
+      </c>
+      <c r="S14">
+        <v>0.0007154947019183794</v>
+      </c>
+      <c r="T14">
+        <v>0.001016832816773323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.5508483333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.652545</v>
+      </c>
+      <c r="I15">
+        <v>0.04409923356951998</v>
+      </c>
+      <c r="J15">
+        <v>0.05440914609796296</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3973579999999999</v>
+      </c>
+      <c r="N15">
+        <v>1.192074</v>
+      </c>
+      <c r="O15">
+        <v>0.006472938661476068</v>
+      </c>
+      <c r="P15">
+        <v>0.00745596318343835</v>
+      </c>
+      <c r="Q15">
+        <v>0.2188839920366666</v>
+      </c>
+      <c r="R15">
+        <v>1.96995592833</v>
+      </c>
+      <c r="S15">
+        <v>0.0002854516339136091</v>
+      </c>
+      <c r="T15">
+        <v>0.0004056725901487302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.5508483333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.652545</v>
+      </c>
+      <c r="I16">
+        <v>0.04409923356951998</v>
+      </c>
+      <c r="J16">
+        <v>0.05440914609796296</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>24.2807625</v>
+      </c>
+      <c r="N16">
+        <v>48.561525</v>
+      </c>
+      <c r="O16">
+        <v>0.3955322060116276</v>
+      </c>
+      <c r="P16">
+        <v>0.3037336126210463</v>
+      </c>
+      <c r="Q16">
+        <v>13.3750175551875</v>
+      </c>
+      <c r="R16">
+        <v>80.250105331125</v>
+      </c>
+      <c r="S16">
+        <v>0.01744266713717426</v>
+      </c>
+      <c r="T16">
+        <v>0.01652588650396059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.481638</v>
+      </c>
+      <c r="H17">
+        <v>1.444914</v>
+      </c>
+      <c r="I17">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J17">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.470843666666667</v>
+      </c>
+      <c r="N17">
+        <v>10.412531</v>
+      </c>
+      <c r="O17">
+        <v>0.05653984104486641</v>
+      </c>
+      <c r="P17">
+        <v>0.0651263661336549</v>
+      </c>
+      <c r="Q17">
+        <v>1.671690201926</v>
+      </c>
+      <c r="R17">
+        <v>15.045211817334</v>
+      </c>
+      <c r="S17">
+        <v>0.002180089530974981</v>
+      </c>
+      <c r="T17">
+        <v>0.003098257153624883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.481638</v>
+      </c>
+      <c r="H18">
+        <v>1.444914</v>
+      </c>
+      <c r="I18">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J18">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>32.24261766666667</v>
+      </c>
+      <c r="N18">
+        <v>96.72785300000001</v>
+      </c>
+      <c r="O18">
+        <v>0.5252303626496961</v>
+      </c>
+      <c r="P18">
+        <v>0.6049954204026234</v>
+      </c>
+      <c r="Q18">
+        <v>15.529269887738</v>
+      </c>
+      <c r="R18">
+        <v>139.763428989642</v>
+      </c>
+      <c r="S18">
+        <v>0.02025207700980548</v>
+      </c>
+      <c r="T18">
+        <v>0.02878145212840433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>6.59884125304004</v>
-      </c>
-      <c r="H13">
-        <v>6.59884125304004</v>
-      </c>
-      <c r="I13">
-        <v>0.658356522159234</v>
-      </c>
-      <c r="J13">
-        <v>0.658356522159234</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>24.0490868279583</v>
-      </c>
-      <c r="N13">
-        <v>24.0490868279583</v>
-      </c>
-      <c r="O13">
-        <v>0.4108839724208816</v>
-      </c>
-      <c r="P13">
-        <v>0.4108839724208816</v>
-      </c>
-      <c r="Q13">
-        <v>158.6961062582731</v>
-      </c>
-      <c r="R13">
-        <v>158.6961062582731</v>
-      </c>
-      <c r="S13">
-        <v>0.2705081430939822</v>
-      </c>
-      <c r="T13">
-        <v>0.2705081430939822</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.481638</v>
+      </c>
+      <c r="H19">
+        <v>1.444914</v>
+      </c>
+      <c r="I19">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J19">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.9959919999999999</v>
+      </c>
+      <c r="N19">
+        <v>2.987976</v>
+      </c>
+      <c r="O19">
+        <v>0.01622465163233374</v>
+      </c>
+      <c r="P19">
+        <v>0.01868863765923708</v>
+      </c>
+      <c r="Q19">
+        <v>0.4797075948959999</v>
+      </c>
+      <c r="R19">
+        <v>4.317368354063999</v>
+      </c>
+      <c r="S19">
+        <v>0.0006255976761466062</v>
+      </c>
+      <c r="T19">
+        <v>0.0008890747136176075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.481638</v>
+      </c>
+      <c r="H20">
+        <v>1.444914</v>
+      </c>
+      <c r="I20">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J20">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.3973579999999999</v>
+      </c>
+      <c r="N20">
+        <v>1.192074</v>
+      </c>
+      <c r="O20">
+        <v>0.006472938661476068</v>
+      </c>
+      <c r="P20">
+        <v>0.00745596318343835</v>
+      </c>
+      <c r="Q20">
+        <v>0.191382712404</v>
+      </c>
+      <c r="R20">
+        <v>1.722444411636</v>
+      </c>
+      <c r="S20">
+        <v>0.0002495865844286532</v>
+      </c>
+      <c r="T20">
+        <v>0.0003547025980667167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.481638</v>
+      </c>
+      <c r="H21">
+        <v>1.444914</v>
+      </c>
+      <c r="I21">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J21">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>24.2807625</v>
+      </c>
+      <c r="N21">
+        <v>48.561525</v>
+      </c>
+      <c r="O21">
+        <v>0.3955322060116276</v>
+      </c>
+      <c r="P21">
+        <v>0.3037336126210463</v>
+      </c>
+      <c r="Q21">
+        <v>11.694537888975</v>
+      </c>
+      <c r="R21">
+        <v>70.16722733384999</v>
+      </c>
+      <c r="S21">
+        <v>0.01525111506424516</v>
+      </c>
+      <c r="T21">
+        <v>0.01444952166021725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.100768</v>
+      </c>
+      <c r="H22">
+        <v>14.201536</v>
+      </c>
+      <c r="I22">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J22">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.470843666666667</v>
+      </c>
+      <c r="N22">
+        <v>10.412531</v>
+      </c>
+      <c r="O22">
+        <v>0.05653984104486641</v>
+      </c>
+      <c r="P22">
+        <v>0.0651263661336549</v>
+      </c>
+      <c r="Q22">
+        <v>24.64565564126934</v>
+      </c>
+      <c r="R22">
+        <v>147.873933847616</v>
+      </c>
+      <c r="S22">
+        <v>0.03214096474672297</v>
+      </c>
+      <c r="T22">
+        <v>0.03045164660627644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.100768</v>
+      </c>
+      <c r="H23">
+        <v>14.201536</v>
+      </c>
+      <c r="I23">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J23">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>32.24261766666667</v>
+      </c>
+      <c r="N23">
+        <v>96.72785300000001</v>
+      </c>
+      <c r="O23">
+        <v>0.5252303626496961</v>
+      </c>
+      <c r="P23">
+        <v>0.6049954204026234</v>
+      </c>
+      <c r="Q23">
+        <v>228.9473477637013</v>
+      </c>
+      <c r="R23">
+        <v>1373.684086582208</v>
+      </c>
+      <c r="S23">
+        <v>0.2985754869108386</v>
+      </c>
+      <c r="T23">
+        <v>0.2828824611940993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.100768</v>
+      </c>
+      <c r="H24">
+        <v>14.201536</v>
+      </c>
+      <c r="I24">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J24">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.9959919999999999</v>
+      </c>
+      <c r="N24">
+        <v>2.987976</v>
+      </c>
+      <c r="O24">
+        <v>0.01622465163233374</v>
+      </c>
+      <c r="P24">
+        <v>0.01868863765923708</v>
+      </c>
+      <c r="Q24">
+        <v>7.072308121856</v>
+      </c>
+      <c r="R24">
+        <v>42.433848731136</v>
+      </c>
+      <c r="S24">
+        <v>0.009223159218450757</v>
+      </c>
+      <c r="T24">
+        <v>0.008738393116912248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.100768</v>
+      </c>
+      <c r="H25">
+        <v>14.201536</v>
+      </c>
+      <c r="I25">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J25">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.3973579999999999</v>
+      </c>
+      <c r="N25">
+        <v>1.192074</v>
+      </c>
+      <c r="O25">
+        <v>0.006472938661476068</v>
+      </c>
+      <c r="P25">
+        <v>0.00745596318343835</v>
+      </c>
+      <c r="Q25">
+        <v>2.821546970944</v>
+      </c>
+      <c r="R25">
+        <v>16.929281825664</v>
+      </c>
+      <c r="S25">
+        <v>0.003679644114335412</v>
+      </c>
+      <c r="T25">
+        <v>0.003486243275197007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.100768</v>
+      </c>
+      <c r="H26">
+        <v>14.201536</v>
+      </c>
+      <c r="I26">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J26">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>24.2807625</v>
+      </c>
+      <c r="N26">
+        <v>48.561525</v>
+      </c>
+      <c r="O26">
+        <v>0.3955322060116276</v>
+      </c>
+      <c r="P26">
+        <v>0.3037336126210463</v>
+      </c>
+      <c r="Q26">
+        <v>172.4120613756</v>
+      </c>
+      <c r="R26">
+        <v>689.6482455024001</v>
+      </c>
+      <c r="S26">
+        <v>0.2248465233484692</v>
+      </c>
+      <c r="T26">
+        <v>0.1420191111999434</v>
       </c>
     </row>
   </sheetData>
